--- a/biology/Botanique/Epilobium_montanum/Epilobium_montanum.xlsx
+++ b/biology/Botanique/Epilobium_montanum/Epilobium_montanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épilobe des montagnes (Epilobium montanum) est une espèce de plante herbacée vivace de la famille des Onagraceae. Elle se trouve en Europe et en Asie[1] également dans des régions de basse altitude.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épilobe des montagnes (Epilobium montanum) est une espèce de plante herbacée vivace de la famille des Onagraceae. Elle se trouve en Europe et en Asie également dans des régions de basse altitude.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Altitude : de 0 jusqu'à 1 800 m.
 Floraison de juin à septembre.
